--- a/calc-data/batteryData3.xlsx
+++ b/calc-data/batteryData3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="18405" windowHeight="9720"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="3465" windowHeight="1365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11496,6 +11496,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Battery Drain vs. Avg.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Temperature over 15 min. Intervals</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -11587,8 +11617,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.49295078740157483"/>
-                  <c:y val="1.6921843102945466E-3"/>
+                  <c:x val="-0.2469905949256343"/>
+                  <c:y val="8.9873869932925052E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -11628,109 +11658,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>53.254686192468618</c:v>
+                  <c:v>11.8081589958159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.377114093959733</c:v>
+                  <c:v>1.8761744966442955</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.86</c:v>
+                  <c:v>-2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.13533834586466</c:v>
+                  <c:v>-1.5914786967418546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.222981366459628</c:v>
+                  <c:v>-2.0983436853002071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.437016574585634</c:v>
+                  <c:v>-4.2016574585635365</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.587679083094557</c:v>
+                  <c:v>-2.4512893982808022</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.832142857142859</c:v>
+                  <c:v>-3.9821428571428568</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.886315789473684</c:v>
+                  <c:v>6.6035087719298247</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.969000000000008</c:v>
+                  <c:v>21.093888888888891</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68.063141361256541</c:v>
+                  <c:v>20.035078534031413</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76.884999999999991</c:v>
+                  <c:v>24.93611111111111</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>82.236551724137925</c:v>
+                  <c:v>27.909195402298849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>87.078807947019868</c:v>
+                  <c:v>30.599337748344368</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>88.687910447761197</c:v>
+                  <c:v>31.493283582089553</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>90.317222222222227</c:v>
+                  <c:v>32.398456790123461</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90.633862815884484</c:v>
+                  <c:v>32.574368231046932</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>88.983500000000006</c:v>
+                  <c:v>31.657499999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>90.818269896193769</c:v>
+                  <c:v>32.676816608996539</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>89.798170347003165</c:v>
+                  <c:v>32.11009463722398</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>90.207289719626161</c:v>
+                  <c:v>32.337383177570089</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>92.102209302325591</c:v>
+                  <c:v>33.390116279069773</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>91.330860927152315</c:v>
+                  <c:v>32.961589403973512</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>91.49067669172932</c:v>
+                  <c:v>33.050375939849623</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>83.565548387096769</c:v>
+                  <c:v>28.647526881720431</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>88.578326180257505</c:v>
+                  <c:v>31.432403433476395</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>90.809565217391309</c:v>
+                  <c:v>32.671980676328502</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>93.770431654676258</c:v>
+                  <c:v>34.316906474820144</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>98.578672985781992</c:v>
+                  <c:v>36.988151658767769</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>101.85508982035928</c:v>
+                  <c:v>38.808383233532936</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>103.70902255639098</c:v>
+                  <c:v>39.838345864661655</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>103.07482517482518</c:v>
+                  <c:v>39.486013986013987</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>104.93692307692308</c:v>
+                  <c:v>40.52051282051282</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>103.08325581395349</c:v>
+                  <c:v>39.490697674418605</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>104.28561983471074</c:v>
+                  <c:v>40.158677685950416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11859,11 +11889,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222127528"/>
-        <c:axId val="222127136"/>
+        <c:axId val="221158144"/>
+        <c:axId val="221157752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222127528"/>
+        <c:axId val="221158144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11883,6 +11913,73 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Avg. Temperature</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Corbel" panose="020B0503020204020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>°C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11920,12 +12017,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222127136"/>
+        <c:crossAx val="221157752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222127136"/>
+        <c:axId val="221157752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11945,6 +12042,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Drain (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11982,7 +12135,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222127528"/>
+        <c:crossAx val="221158144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12025,8 +12178,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -12591,20 +12744,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12888,7 +13041,7 @@
   <dimension ref="A1:AD3798"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12937,8 +13090,12 @@
         <f>(J2/10)*9/5+32</f>
         <v>53.254686192468618</v>
       </c>
+      <c r="M2">
+        <v>118.081589958159</v>
+      </c>
       <c r="N2">
-        <v>53.254686192468618</v>
+        <f>M2/10</f>
+        <v>11.8081589958159</v>
       </c>
       <c r="O2">
         <v>-4</v>
@@ -12970,11 +13127,15 @@
         <v>18.761744966442954</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K12" si="2">(J3/10)*9/5+32</f>
+        <f t="shared" ref="K3:K11" si="2">(J3/10)*9/5+32</f>
         <v>35.377114093959733</v>
       </c>
+      <c r="M3">
+        <v>18.761744966442954</v>
+      </c>
       <c r="N3">
-        <v>35.377114093959733</v>
+        <f t="shared" ref="N3:N36" si="3">M3/10</f>
+        <v>1.8761744966442955</v>
       </c>
       <c r="O3">
         <v>-4</v>
@@ -13009,8 +13170,12 @@
         <f t="shared" si="2"/>
         <v>27.86</v>
       </c>
+      <c r="M4">
+        <v>-23</v>
+      </c>
       <c r="N4">
-        <v>27.86</v>
+        <f t="shared" si="3"/>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="O4">
         <v>-4</v>
@@ -13045,8 +13210,12 @@
         <f t="shared" si="2"/>
         <v>29.13533834586466</v>
       </c>
+      <c r="M5">
+        <v>-15.914786967418546</v>
+      </c>
       <c r="N5">
-        <v>29.13533834586466</v>
+        <f t="shared" si="3"/>
+        <v>-1.5914786967418546</v>
       </c>
       <c r="O5">
         <v>-4</v>
@@ -13081,8 +13250,12 @@
         <f t="shared" si="2"/>
         <v>28.222981366459628</v>
       </c>
+      <c r="M6">
+        <v>-20.983436853002072</v>
+      </c>
       <c r="N6">
-        <v>28.222981366459628</v>
+        <f t="shared" si="3"/>
+        <v>-2.0983436853002071</v>
       </c>
       <c r="O6">
         <v>-4</v>
@@ -13117,8 +13290,12 @@
         <f t="shared" si="2"/>
         <v>24.437016574585634</v>
       </c>
+      <c r="M7">
+        <v>-42.016574585635361</v>
+      </c>
       <c r="N7">
-        <v>24.437016574585634</v>
+        <f t="shared" si="3"/>
+        <v>-4.2016574585635365</v>
       </c>
       <c r="O7">
         <v>-4</v>
@@ -13153,8 +13330,12 @@
         <f t="shared" si="2"/>
         <v>27.587679083094557</v>
       </c>
+      <c r="M8">
+        <v>-24.512893982808023</v>
+      </c>
       <c r="N8">
-        <v>27.587679083094557</v>
+        <f t="shared" si="3"/>
+        <v>-2.4512893982808022</v>
       </c>
       <c r="O8">
         <v>-4</v>
@@ -13189,8 +13370,12 @@
         <f t="shared" si="2"/>
         <v>24.832142857142859</v>
       </c>
+      <c r="M9">
+        <v>-39.821428571428569</v>
+      </c>
       <c r="N9">
-        <v>24.832142857142859</v>
+        <f t="shared" si="3"/>
+        <v>-3.9821428571428568</v>
       </c>
       <c r="O9">
         <v>-4</v>
@@ -13225,8 +13410,12 @@
         <f t="shared" si="2"/>
         <v>43.886315789473684</v>
       </c>
+      <c r="M10">
+        <v>66.035087719298247</v>
+      </c>
       <c r="N10">
-        <v>43.886315789473684</v>
+        <f t="shared" si="3"/>
+        <v>6.6035087719298247</v>
       </c>
       <c r="O10">
         <v>-5</v>
@@ -13261,8 +13450,12 @@
         <f t="shared" si="2"/>
         <v>69.969000000000008</v>
       </c>
+      <c r="M11">
+        <v>210.9388888888889</v>
+      </c>
       <c r="N11">
-        <v>69.969000000000008</v>
+        <f t="shared" si="3"/>
+        <v>21.093888888888891</v>
       </c>
       <c r="O11">
         <v>-4</v>
@@ -13290,8 +13483,12 @@
       <c r="K12" s="3">
         <v>68.063141361256541</v>
       </c>
+      <c r="M12">
+        <v>200.35078534031413</v>
+      </c>
       <c r="N12">
-        <v>68.063141361256541</v>
+        <f t="shared" si="3"/>
+        <v>20.035078534031413</v>
       </c>
       <c r="O12">
         <v>-5</v>
@@ -13316,8 +13513,12 @@
       <c r="K13">
         <v>76.884999999999991</v>
       </c>
+      <c r="M13">
+        <v>249.36111111111111</v>
+      </c>
       <c r="N13">
-        <v>76.884999999999991</v>
+        <f t="shared" si="3"/>
+        <v>24.93611111111111</v>
       </c>
       <c r="O13">
         <v>-4</v>
@@ -13342,8 +13543,12 @@
       <c r="K14">
         <v>82.236551724137925</v>
       </c>
+      <c r="M14">
+        <v>279.09195402298849</v>
+      </c>
       <c r="N14">
-        <v>82.236551724137925</v>
+        <f t="shared" si="3"/>
+        <v>27.909195402298849</v>
       </c>
       <c r="O14">
         <v>-4</v>
@@ -13368,8 +13573,12 @@
       <c r="K15">
         <v>87.078807947019868</v>
       </c>
+      <c r="M15">
+        <v>305.99337748344368</v>
+      </c>
       <c r="N15">
-        <v>87.078807947019868</v>
+        <f t="shared" si="3"/>
+        <v>30.599337748344368</v>
       </c>
       <c r="O15">
         <v>-4</v>
@@ -13394,8 +13603,12 @@
       <c r="K16">
         <v>88.687910447761197</v>
       </c>
+      <c r="M16">
+        <v>314.93283582089555</v>
+      </c>
       <c r="N16">
-        <v>88.687910447761197</v>
+        <f t="shared" si="3"/>
+        <v>31.493283582089553</v>
       </c>
       <c r="O16">
         <v>-5</v>
@@ -13420,8 +13633,12 @@
       <c r="K17">
         <v>90.317222222222227</v>
       </c>
+      <c r="M17">
+        <v>323.98456790123458</v>
+      </c>
       <c r="N17">
-        <v>90.317222222222227</v>
+        <f t="shared" si="3"/>
+        <v>32.398456790123461</v>
       </c>
       <c r="O17">
         <v>-3</v>
@@ -13446,8 +13663,12 @@
       <c r="K18">
         <v>90.633862815884484</v>
       </c>
+      <c r="M18">
+        <v>325.7436823104693</v>
+      </c>
       <c r="N18">
-        <v>90.633862815884484</v>
+        <f t="shared" si="3"/>
+        <v>32.574368231046932</v>
       </c>
       <c r="O18">
         <v>-5</v>
@@ -13472,8 +13693,12 @@
       <c r="K19">
         <v>88.983500000000006</v>
       </c>
+      <c r="M19">
+        <v>316.57499999999999</v>
+      </c>
       <c r="N19">
-        <v>88.983500000000006</v>
+        <f t="shared" si="3"/>
+        <v>31.657499999999999</v>
       </c>
       <c r="O19">
         <v>-4</v>
@@ -13498,8 +13723,12 @@
       <c r="K20">
         <v>90.818269896193769</v>
       </c>
+      <c r="M20">
+        <v>326.7681660899654</v>
+      </c>
       <c r="N20">
-        <v>90.818269896193769</v>
+        <f t="shared" si="3"/>
+        <v>32.676816608996539</v>
       </c>
       <c r="O20">
         <v>-5</v>
@@ -13524,8 +13753,12 @@
       <c r="K21">
         <v>89.798170347003165</v>
       </c>
+      <c r="M21">
+        <v>321.10094637223978</v>
+      </c>
       <c r="N21">
-        <v>89.798170347003165</v>
+        <f t="shared" si="3"/>
+        <v>32.11009463722398</v>
       </c>
       <c r="O21">
         <v>-4</v>
@@ -13550,8 +13783,12 @@
       <c r="K22">
         <v>90.207289719626161</v>
       </c>
+      <c r="M22">
+        <v>323.37383177570092</v>
+      </c>
       <c r="N22">
-        <v>90.207289719626161</v>
+        <f t="shared" si="3"/>
+        <v>32.337383177570089</v>
       </c>
       <c r="O22">
         <v>-5</v>
@@ -13576,8 +13813,12 @@
       <c r="K23">
         <v>92.102209302325591</v>
       </c>
+      <c r="M23">
+        <v>333.9011627906977</v>
+      </c>
       <c r="N23">
-        <v>92.102209302325591</v>
+        <f t="shared" si="3"/>
+        <v>33.390116279069773</v>
       </c>
       <c r="O23">
         <v>-5</v>
@@ -13602,14 +13843,18 @@
       <c r="K24">
         <v>91.330860927152315</v>
       </c>
+      <c r="M24">
+        <v>329.61589403973511</v>
+      </c>
       <c r="N24">
-        <v>91.330860927152315</v>
+        <f t="shared" si="3"/>
+        <v>32.961589403973512</v>
       </c>
       <c r="O24">
         <v>-5</v>
       </c>
       <c r="Q24">
-        <f>PEARSON(N2:N36,O2:O36)</f>
+        <f>PEARSON(M2:M36,O2:O36)</f>
         <v>-0.52207397048850035</v>
       </c>
     </row>
@@ -13632,8 +13877,12 @@
       <c r="K25">
         <v>91.49067669172932</v>
       </c>
+      <c r="M25">
+        <v>330.50375939849624</v>
+      </c>
       <c r="N25">
-        <v>91.49067669172932</v>
+        <f t="shared" si="3"/>
+        <v>33.050375939849623</v>
       </c>
       <c r="O25">
         <v>-4</v>
@@ -13658,8 +13907,12 @@
       <c r="K26">
         <v>83.565548387096769</v>
       </c>
+      <c r="M26">
+        <v>286.47526881720432</v>
+      </c>
       <c r="N26">
-        <v>83.565548387096769</v>
+        <f t="shared" si="3"/>
+        <v>28.647526881720431</v>
       </c>
       <c r="O26">
         <v>-5</v>
@@ -13684,8 +13937,12 @@
       <c r="K27">
         <v>88.578326180257505</v>
       </c>
+      <c r="M27">
+        <v>314.32403433476395</v>
+      </c>
       <c r="N27">
-        <v>88.578326180257505</v>
+        <f t="shared" si="3"/>
+        <v>31.432403433476395</v>
       </c>
       <c r="O27">
         <v>-7</v>
@@ -13710,8 +13967,12 @@
       <c r="K28">
         <v>90.809565217391309</v>
       </c>
+      <c r="M28">
+        <v>326.71980676328502</v>
+      </c>
       <c r="N28">
-        <v>90.809565217391309</v>
+        <f t="shared" si="3"/>
+        <v>32.671980676328502</v>
       </c>
       <c r="O28">
         <v>-6</v>
@@ -13736,8 +13997,12 @@
       <c r="K29">
         <v>93.770431654676258</v>
       </c>
+      <c r="M29">
+        <v>343.16906474820144</v>
+      </c>
       <c r="N29">
-        <v>93.770431654676258</v>
+        <f t="shared" si="3"/>
+        <v>34.316906474820144</v>
       </c>
       <c r="O29">
         <v>-6</v>
@@ -13762,8 +14027,12 @@
       <c r="K30">
         <v>98.578672985781992</v>
       </c>
+      <c r="M30">
+        <v>369.88151658767771</v>
+      </c>
       <c r="N30">
-        <v>98.578672985781992</v>
+        <f t="shared" si="3"/>
+        <v>36.988151658767769</v>
       </c>
       <c r="O30">
         <v>-4</v>
@@ -13788,8 +14057,12 @@
       <c r="K31">
         <v>101.85508982035928</v>
       </c>
+      <c r="M31">
+        <v>388.08383233532936</v>
+      </c>
       <c r="N31">
-        <v>101.85508982035928</v>
+        <f t="shared" si="3"/>
+        <v>38.808383233532936</v>
       </c>
       <c r="O31">
         <v>-6</v>
@@ -13814,8 +14087,12 @@
       <c r="K32">
         <v>103.70902255639098</v>
       </c>
+      <c r="M32">
+        <v>398.38345864661653</v>
+      </c>
       <c r="N32">
-        <v>103.70902255639098</v>
+        <f t="shared" si="3"/>
+        <v>39.838345864661655</v>
       </c>
       <c r="O32">
         <v>-6</v>
@@ -13840,8 +14117,12 @@
       <c r="K33">
         <v>103.07482517482518</v>
       </c>
+      <c r="M33">
+        <v>394.86013986013984</v>
+      </c>
       <c r="N33">
-        <v>103.07482517482518</v>
+        <f t="shared" si="3"/>
+        <v>39.486013986013987</v>
       </c>
       <c r="O33">
         <v>-7</v>
@@ -13866,8 +14147,12 @@
       <c r="K34">
         <v>104.93692307692308</v>
       </c>
+      <c r="M34">
+        <v>405.20512820512823</v>
+      </c>
       <c r="N34">
-        <v>104.93692307692308</v>
+        <f t="shared" si="3"/>
+        <v>40.52051282051282</v>
       </c>
       <c r="O34">
         <v>-6</v>
@@ -13892,8 +14177,12 @@
       <c r="K35">
         <v>103.08325581395349</v>
       </c>
+      <c r="M35">
+        <v>394.90697674418607</v>
+      </c>
       <c r="N35">
-        <v>103.08325581395349</v>
+        <f t="shared" si="3"/>
+        <v>39.490697674418605</v>
       </c>
       <c r="O35">
         <v>-7</v>
@@ -13918,8 +14207,12 @@
       <c r="K36">
         <v>104.28561983471074</v>
       </c>
+      <c r="M36">
+        <v>401.58677685950414</v>
+      </c>
       <c r="N36">
-        <v>104.28561983471074</v>
+        <f t="shared" si="3"/>
+        <v>40.158677685950416</v>
       </c>
       <c r="O36">
         <v>-5</v>
@@ -55607,5 +55900,163 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!M2:M2</xm:f>
+              <xm:sqref>R2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M3:M3</xm:f>
+              <xm:sqref>R3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M4:M4</xm:f>
+              <xm:sqref>R4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M5:M5</xm:f>
+              <xm:sqref>R5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M6:M6</xm:f>
+              <xm:sqref>R6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M7:M7</xm:f>
+              <xm:sqref>R7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M8:M8</xm:f>
+              <xm:sqref>R8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M9:M9</xm:f>
+              <xm:sqref>R9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M10:M10</xm:f>
+              <xm:sqref>R10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M11:M11</xm:f>
+              <xm:sqref>R11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M12:M12</xm:f>
+              <xm:sqref>R12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M13:M13</xm:f>
+              <xm:sqref>R13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M14:M14</xm:f>
+              <xm:sqref>R14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M15:M15</xm:f>
+              <xm:sqref>R15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M16:M16</xm:f>
+              <xm:sqref>R16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M17:M17</xm:f>
+              <xm:sqref>R17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M18:M18</xm:f>
+              <xm:sqref>R18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M19:M19</xm:f>
+              <xm:sqref>R19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M20:M20</xm:f>
+              <xm:sqref>R20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M21:M21</xm:f>
+              <xm:sqref>R21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M22:M22</xm:f>
+              <xm:sqref>R22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M23:M23</xm:f>
+              <xm:sqref>R23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M24:M24</xm:f>
+              <xm:sqref>R24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M25:M25</xm:f>
+              <xm:sqref>R25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M26:M26</xm:f>
+              <xm:sqref>R26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M27:M27</xm:f>
+              <xm:sqref>R27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M28:M28</xm:f>
+              <xm:sqref>R28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M29:M29</xm:f>
+              <xm:sqref>R29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M30:M30</xm:f>
+              <xm:sqref>R30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M31:M31</xm:f>
+              <xm:sqref>R31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M32:M32</xm:f>
+              <xm:sqref>R32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M33:M33</xm:f>
+              <xm:sqref>R33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M34:M34</xm:f>
+              <xm:sqref>R34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M35:M35</xm:f>
+              <xm:sqref>R35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!M36:M36</xm:f>
+              <xm:sqref>R36</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>